--- a/附件/附件1-凸轮边缘曲线.xlsx
+++ b/附件/附件1-凸轮边缘曲线.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B363AAD2-A0EC-4393-9D54-9415BE91D626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECB1B71-5D7A-4131-98FE-E0C361E4CB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3977,7 +3977,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A92-45A5-BE40-984A0F9F250F}"/>
+              <c16:uniqueId val="{00000000-9DEB-4C09-BAA8-3A7B66591E09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3989,11 +3989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081912544"/>
-        <c:axId val="2076472240"/>
+        <c:axId val="1410778928"/>
+        <c:axId val="1410786608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081912544"/>
+        <c:axId val="1410778928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4050,12 +4050,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076472240"/>
+        <c:crossAx val="1410786608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2076472240"/>
+        <c:axId val="1410786608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4112,7 +4112,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081912544"/>
+        <c:crossAx val="1410778928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4728,23 +4728,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3CD105-B5AE-7557-5BA3-C8C9C342F93C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9052F2D0-23A2-1F3F-737A-8796A147E129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5055,7 +5055,7 @@
   <dimension ref="A1:E629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
